--- a/docs/ST3/ST3_12.11.2024_output.xlsx
+++ b/docs/ST3/ST3_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731671994.445176</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731671995.2000394</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671994.445176.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671995.2000394.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.73</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>136.69</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731672005.0821788</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731672005.8336623</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672005.0821788.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672005.8336623.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.7</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.81</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1100000000000136</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731672018.2193933</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731672020.8995397</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672018.2193933.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672020.8995397.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7035</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7037</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731672028.7891424</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731672030.6532435</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672028.7891424.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672030.6532435.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7005.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6991.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-14</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731672041.2371402</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731672043.3919652</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672041.2371402.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672043.3919652.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>492.45</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>491.65</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.8000000000000114</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731672050.664968</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731672051.7644427</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672050.664968.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672051.7644427.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>489.45</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>488.65</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731672054.5929048</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731672055.0761204</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672054.5929048.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672055.0761204.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>487</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>487.35</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731672057.4505506</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731672058.078993</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672057.4505506.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672058.078993.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>486.55</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>484.75</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -955,95 +1019,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731672059.6391108</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731672059.6391108.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731672059.6391108.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>484.8</v>
       </c>
-      <c r="J11" t="n">
-        <v>484.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>484.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731672063.6410306</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731672066.0209157</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672063.6410306.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672066.0209157.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>945.6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>948.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731672066.967175</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731672068.4184263</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672066.967175.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672068.4184263.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>945.8</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>946.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731672072.5970817</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731672074.427972</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672072.5970817.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672074.427972.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>939.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>937.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2.199999999999932</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731672076.2670603</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731672079.0784411</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672076.2670603.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672079.0784411.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>935</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>934.8</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731672084.4978144</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731672087.0465124</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672084.4978144.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672087.0465124.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>37.995</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>38.005</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731672089.0710769</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731672091.2323303</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672089.0710769.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672091.2323303.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>37.89</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>37.845</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731672096.9506292</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731672097.8424983</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672096.9506292.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672097.8424983.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>38.13</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>38.08</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731672111.898813</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731672113.6188312</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672111.898813.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672113.6188312.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1244.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1246.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.800000000000182</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731672116.6709585</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731672117.7113543</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672116.6709585.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672117.7113543.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1243.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1240.4</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731672118.5117903</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731672119.2959468</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672118.5117903.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672119.2959468.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1241.4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1243.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-2</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731672126.3916519</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731672127.8573987</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672126.3916519.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672127.8573987.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1235</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1234.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731672132.556487</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731672134.892395</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672132.556487.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672134.892395.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>81.17</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.07000000000000739</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731672141.526157</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731672142.7649784</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672141.526157.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672142.7649784.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>80.79000000000001</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>80.84999999999999</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.05999999999998806</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731672144.315076</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731672145.003086</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672144.315076.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672145.003086.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>80.70999999999999</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>80.33</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731672146.5430934</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731672146.8624594</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672146.5430934.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672146.8624594.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>80.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>80.58</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731672161.601991</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731672162.8844006</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672161.601991.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672162.8844006.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>14.449</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>14.484</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.03500000000000014</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731672166.5310075</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731672167.2214444</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672166.5310075.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672167.2214444.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>14.429</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>14.389</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.04000000000000092</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731672168.9414797</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731672169.322963</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672168.9414797.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672169.322963.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>14.393</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>14.401</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.007999999999999119</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731672171.7309725</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731672173.3503177</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672171.7309725.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672173.3503177.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>14.37</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>14.345</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731672186.8255014</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731672188.3745732</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672186.8255014.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672188.3745732.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>106.27</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>106.18</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.0899999999999892</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731672189.6961205</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731672192.5184996</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672189.6961205.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672192.5184996.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>105.95</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>106.06</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731672214.0084004</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731672216.5475683</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731672214.0084004.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731672216.5475683.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>346.44</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>347.71</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1.269999999999982</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731672219.2761252</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731672220.5351443</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672219.2761252.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672220.5351443.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>2796.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>2793.7</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731672224.3076649</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731672225.2554</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672224.3076649.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672225.2554.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>2787.45</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>2783.45</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>4</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731672225.3054767</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731672225.3917222</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672225.3054767.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672225.3917222.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>2784.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>2782.75</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>2.050000000000182</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731672231.2219486</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731672231.7667878</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672231.2219486.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672231.7667878.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>2780.7</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>2774.45</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>6.25</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731672232.3180249</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731672233.974573</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672232.3180249.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672233.974573.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>2776.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>2780</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-3.800000000000182</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731672240.9889197</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731672244.7214992</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672240.9889197.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672244.7214992.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>598.1</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>590.9</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-7.200000000000045</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731672245.530144</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731672248.8687088</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672245.530144.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672248.8687088.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>592.3</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>593.8</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731672254.769981</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731672256.3004162</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672254.769981.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672256.3004162.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>593.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>594</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2559,51 +2809,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731672258.5802531</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731672260.1172037</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672258.5802531.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672260.1172037.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>591.9</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>590</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2611,44 +2867,50 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731672261.126189</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731672261.126189.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731672261.126189.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>590</v>
       </c>
-      <c r="J43" t="n">
-        <v>590</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>588.8</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2731,19 +2993,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.449999999999989</v>
+        <v>1.75</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2899999999999977</v>
+        <v>0.35</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2753,19 +3015,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-7.200000000000045</v>
+        <v>-6</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.440000000000009</v>
+        <v>-1.2</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.24</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="5">
